--- a/학습자료/단답형/객관식_영어_유의어_Day01.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day01.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>in conjunction with
-1. 비참한
+1. ~와 함께
 2. 무정한, 냉담한
-3. ~와 함께</t>
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, ~와 함께</t>
+          <t>1, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>in combination with
-1. ~와 비교하여
-2. ~와 함께
-3. 설득력 있는</t>
+1. ~와 함께
+2. 설득력 있는
+3. ~의 경우에</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, ~와 함께</t>
+          <t>1, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -479,9 +479,9 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>in company with
-1. ~의 경우에
+1. 비참한
 2. ~와 함께
-3. 남을 속이는, 기만적인</t>
+3. ~대신에</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -509,8 +509,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>alongside
-1. 널리 퍼진, 만연한
-2. 화나게 하다
+1. 비참한
+2. 남을 속이는, 기만적인
 3. ~와 함께</t>
         </is>
       </c>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>along with
-1. ~와 함께
-2. 남을 속이는, 기만적인
-3. 설득력 있는</t>
+1. 무정한, 냉담한
+2. ~와 함께
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, ~와 함께</t>
+          <t>2, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
           <t>in comparison with
 1. 널리 퍼진, 만연한
 2. ~와 비교하여
-3. 설득력 있는</t>
+3. ~대신에</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,8 +554,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>(as) compared with[to]
-1. ~의 경우에
-2. 비참한
+1. ~와 함께
+2. 무정한, 냉담한
 3. ~와 비교하여</t>
         </is>
       </c>
@@ -569,8 +569,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>as against
-1. ~와 함께
-2. 비참한
+1. 화나게 하다
+2. 널리 퍼진, 만연한
 3. ~와 비교하여</t>
         </is>
       </c>
@@ -584,8 +584,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>by[in] contrast
-1. ~대신에
-2. 무정한, 냉담한
+1. 남을 속이는, 기만적인
+2. 설득력 있는
 3. ~와 비교하여</t>
         </is>
       </c>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>in place of
-1. ~와 비교하여
-2. ~대신에
-3. 비참한</t>
+1. ~대신에
+2. ~의 경우에
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2, ~대신에</t>
+          <t>1, ~대신에</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>instead (of)
-1. 무정한, 냉담한
+1. ~와 함께
 2. ~의 경우에
 3. ~대신에</t>
         </is>
@@ -630,13 +630,13 @@
         <is>
           <t>on behalf of
 1. 설득력 있는
-2. 무정한, 냉담한
-3. ~대신에</t>
+2. ~대신에
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3, ~대신에</t>
+          <t>2, ~대신에</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>in substitute for
-1. 설득력 있는
-2. 비참한
-3. ~대신에</t>
+1. ~와 함께
+2. ~대신에
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3, ~대신에</t>
+          <t>2, ~대신에</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <is>
           <t>in lieu of
 1. 남을 속이는, 기만적인
-2. ~와 함께
+2. ~와 비교하여
 3. ~대신에</t>
         </is>
       </c>
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>in case of
-1. ~의 경우에
-2. 무정한, 냉담한
+1. 설득력 있는
+2. ~의 경우에
 3. 화나게 하다</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1, ~의 경우에</t>
+          <t>2, ~의 경우에</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>in the event of
-1. ~의 경우에
-2. 널리 퍼진, 만연한
-3. ~와 비교하여</t>
+1. ~와 함께
+2. ~의 경우에
+3. 비참한</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1, ~의 경우에</t>
+          <t>2, ~의 경우에</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>on the occasion (of)
-1. ~의 경우에
-2. ~와 함께
-3. 설득력 있는</t>
+1. ~대신에
+2. 화나게 하다
+3. ~의 경우에</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1, ~의 경우에</t>
+          <t>3, ~의 경우에</t>
         </is>
       </c>
     </row>
@@ -719,9 +719,9 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>in time (of)
-1. 화나게 하다
+1. ~와 비교하여
 2. ~의 경우에
-3. 비참한</t>
+3. 설득력 있는</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -734,389 +734,389 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>pervasive
+1. 화나게 하다
+2. 널리 퍼진, 만연한
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ubiquitous
+1. 화나게 하다
+2. 널리 퍼진, 만연한
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>prevalent
+1. 화나게 하다
+2. 널리 퍼진, 만연한
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>omnipresent
+1. 널리 퍼진, 만연한
+2. 비참한
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>immanent
+1. 무정한, 냉담한
+2. 비참한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>current
+1. 무정한, 냉담한
+2. 남을 속이는, 기만적인
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>prevailing
 1. ~대신에
 2. 무정한, 냉담한
 3. 널리 퍼진, 만연한</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>3, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ubiquitous
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>rife
+1. 화나게 하다
+2. 널리 퍼진, 만연한
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>deceptive
+1. ~대신에
+2. 화나게 하다
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>deceitful
+1. 남을 속이는, 기만적인
+2. 무정한, 냉담한
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>delusive
+1. 설득력 있는
+2. 남을 속이는, 기만적인
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>devious
+1. 남을 속이는, 기만적인
+2. 무정한, 냉담한
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>fraudulent
+1. 남을 속이는, 기만적인
+2. ~의 경우에
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>persuasive
+1. 비참한
+2. 설득력 있는
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>convincing
+1. 무정한, 냉담한
+2. 설득력 있는
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>compelling
 1. 널리 퍼진, 만연한
-2. ~의 경우에
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>prevalent
+2. 남을 속이는, 기만적인
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>cogent
 1. 비참한
-2. 널리 퍼진, 만연한
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>omnipresent
-1. 설득력 있는
-2. ~와 비교하여
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>immanent
+2. 설득력 있는
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>disastrous
+1. ~와 비교하여
+2. 화나게 하다
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>tragic
 1. ~의 경우에
 2. 무정한, 냉담한
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>current
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>miserable
 1. 남을 속이는, 기만적인
+2. 비참한
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>deplorable
+1. 비참한
+2. ~의 경우에
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>calamitous
+1. 비참한
+2. 남을 속이는, 기만적인
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>catastrophic
+1. ~의 경우에
 2. 무정한, 냉담한
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>prevailing
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vex
 1. ~대신에
-2. 널리 퍼진, 만연한
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>rife
-1. 무정한, 냉담한
-2. 널리 퍼진, 만연한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>deceptive
-1. ~와 함께
-2. ~의 경우에
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>3, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>deceitful
-1. ~대신에
-2. 무정한, 냉담한
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>delusive
-1. 남을 속이는, 기만적인
-2. ~대신에
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>devious
+2. 설득력 있는
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>annoy
 1. ~의 경우에
-2. 설득력 있는
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>fraudulent
-1. ~와 비교하여
-2. 남을 속이는, 기만적인
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>persuasive
-1. 무정한, 냉담한
-2. ~와 비교하여
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>convincing
-1. 설득력 있는
-2. 널리 퍼진, 만연한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>compelling
-1. ~의 경우에
-2. 설득력 있는
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>cogent
-1. 널리 퍼진, 만연한
-2. 설득력 있는
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>disastrous
-1. 설득력 있는
 2. 화나게 하다
 3. 비참한</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>tragic
-1. 비참한
-2. ~대신에
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>miserable
-1. 비참한
-2. 널리 퍼진, 만연한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>deplorable
-1. 남을 속이는, 기만적인
-2. 비참한
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>calamitous
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>infuriate
 1. ~와 함께
 2. 비참한
-3. ~의 경우에</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>catastrophic
-1. 비참한
-2. ~대신에
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>vex
-1. 화나게 하다
-2. 비참한
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>annoy
-1. 화나게 하다
-2. ~와 함께
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>infuriate
-1. 화나게 하다
-2. 무정한, 냉담한
-3. ~의 경우에</t>
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1, 화나게 하다</t>
+          <t>3, 화나게 하다</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>displease
-1. 무정한, 냉담한
+1. ~의 경우에
 2. 널리 퍼진, 만연한
 3. 화나게 하다</t>
         </is>
@@ -1139,14 +1139,14 @@
       <c r="A48" t="inlineStr">
         <is>
           <t>exasperate
-1. 화나게 하다
-2. 설득력 있는
-3. ~대신에</t>
+1. 널리 퍼진, 만연한
+2. ~와 함께
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1, 화나게 하다</t>
+          <t>3, 화나게 하다</t>
         </is>
       </c>
     </row>
@@ -1154,14 +1154,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>callous
-1. 설득력 있는
-2. 무정한, 냉담한
-3. ~와 함께</t>
+1. ~와 함께
+2. 설득력 있는
+3. 무정한, 냉담한</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2, 무정한, 냉담한</t>
+          <t>3, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>cruel
-1. ~와 비교하여
-2. ~대신에
-3. 무정한, 냉담한</t>
+1. 비참한
+2. 무정한, 냉담한
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3, 무정한, 냉담한</t>
+          <t>2, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
           <t>pitiless
 1. 무정한, 냉담한
 2. ~대신에
-3. ~의 경우에</t>
+3. ~와 비교하여</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1199,44 +1199,44 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>ruthless
+1. 무정한, 냉담한
+2. 비참한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>uncharitable
+1. 비참한
+2. 무정한, 냉담한
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>inexorable
 1. ~와 함께
 2. 무정한, 냉담한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>2, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>uncharitable
-1. ~와 비교하여
-2. 널리 퍼진, 만연한
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>3, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>inexorable
-1. 설득력 있는
-2. ~의 경우에
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>3, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1244,14 +1244,14 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>relentless
-1. 널리 퍼진, 만연한
-2. 비참한
-3. 무정한, 냉담한</t>
+1. 무정한, 냉담한
+2. ~의 경우에
+3. 설득력 있는</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3, 무정한, 냉담한</t>
+          <t>1, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>merciless
-1. ~대신에
+1. 널리 퍼진, 만연한
 2. ~와 함께
 3. 무정한, 냉담한</t>
         </is>

--- a/학습자료/단답형/객관식_영어_유의어_Day01.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day01.xlsx
@@ -448,282 +448,282 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>in conjunction with
+          <t>in conjunction with*
+1. ~대신에
+2. 무정한, 냉담한
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>in combination with*
+1. 무정한, 냉담한
+2. 설득력 있는
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>in company with
+1. 설득력 있는
+2. 비참한
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>together with
 1. ~와 함께
 2. 무정한, 냉담한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>1, ~와 함께</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>in combination with
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>alongside
 1. ~와 함께
+2. ~의 경우에
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>along with
+1. ~와 함께
+2. 무정한, 냉담한
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>in comparison with*
+1. 화나게 하다
+2. ~와 비교하여
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2, ~와 비교하여</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>(as) compared with[to]
+1. ~와 비교하여
+2. ~의 경우에
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1, ~와 비교하여</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>as against
+1. 설득력 있는
+2. ~와 비교하여
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2, ~와 비교하여</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>by[in] contrast
+1. ~의 경우에
+2. ~와 함께
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3, ~와 비교하여</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>in place of*
+1. 비참한
+2. ~대신에
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>instead (of)
+1. ~대신에
+2. ~와 비교하여
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>on behalf of
+1. 비참한
 2. 설득력 있는
-3. ~의 경우에</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>in company with
-1. 비참한
-2. ~와 함께
 3. ~대신에</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>together with
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in substitute for
 1. ~대신에
 2. ~와 함께
 3. 설득력 있는</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>alongside
-1. 비참한
-2. 남을 속이는, 기만적인
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>along with
-1. 무정한, 냉담한
-2. ~와 함께
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>in comparison with
-1. 널리 퍼진, 만연한
-2. ~와 비교하여
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2, ~와 비교하여</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>(as) compared with[to]
-1. ~와 함께
-2. 무정한, 냉담한
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, ~와 비교하여</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>as against
-1. 화나게 하다
-2. 널리 퍼진, 만연한
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, ~와 비교하여</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>by[in] contrast
-1. 남을 속이는, 기만적인
-2. 설득력 있는
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3, ~와 비교하여</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>in place of
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>in lieu of
 1. ~대신에
 2. ~의 경우에
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>1, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>instead (of)
-1. ~와 함께
-2. ~의 경우에
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>on behalf of
-1. 설득력 있는
-2. ~대신에
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>in substitute for
-1. ~와 함께
-2. ~대신에
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>in lieu of
-1. 남을 속이는, 기만적인
-2. ~와 비교하여
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3, ~대신에</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>in case of
-1. 설득력 있는
-2. ~의 경우에
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2, ~의 경우에</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>in the event of
-1. ~와 함께
-2. ~의 경우에
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2, ~의 경우에</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>on the occasion (of)
-1. ~대신에
-2. 화나게 하다
-3. ~의 경우에</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3, ~의 경우에</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>in time (of)
+          <t>in case of*
 1. ~와 비교하여
 2. ~의 경우에
 3. 설득력 있는</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2, ~의 경우에</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>in the event of
+1. ~의 경우에
+2. ~와 함께
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1, ~의 경우에</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>on the occasion (of)
+1. 설득력 있는
+2. ~와 비교하여
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3, ~의 경우에</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>in time (of)
+1. ~대신에
+2. ~의 경우에
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>2, ~의 경우에</t>
@@ -733,45 +733,45 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pervasive
-1. 화나게 하다
-2. 널리 퍼진, 만연한
-3. ~의 경우에</t>
+          <t>pervasive*
+1. ~와 함께
+2. 무정한, 냉담한
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2, 널리 퍼진, 만연한</t>
+          <t>3, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ubiquitous
-1. 화나게 하다
-2. 널리 퍼진, 만연한
-3. ~대신에</t>
+          <t>ubiquitous*
+1. 널리 퍼진, 만연한
+2. ~와 비교하여
+3. 남을 속이는, 기만적인</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2, 널리 퍼진, 만연한</t>
+          <t>1, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>prevalent
-1. 화나게 하다
-2. 널리 퍼진, 만연한
-3. ~의 경우에</t>
+          <t>prevalent*
+1. ~와 함께
+2. 화나게 하다
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2, 널리 퍼진, 만연한</t>
+          <t>3, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -779,44 +779,44 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>omnipresent
-1. 널리 퍼진, 만연한
-2. 비참한
-3. ~의 경우에</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>immanent
-1. 무정한, 냉담한
-2. 비참한
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>current
 1. 무정한, 냉담한
 2. 남을 속이는, 기만적인
 3. 널리 퍼진, 만연한</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>immanent
+1. 널리 퍼진, 만연한
+2. 설득력 있는
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>current
+1. ~의 경우에
+2. 널리 퍼진, 만연한
+3. ~대신에</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3, 널리 퍼진, 만연한</t>
+          <t>2, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>prevailing
-1. ~대신에
-2. 무정한, 냉담한
-3. 널리 퍼진, 만연한</t>
+1. 무정한, 냉담한
+2. 널리 퍼진, 만연한
+3. ~와 비교하여</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3, 널리 퍼진, 만연한</t>
+          <t>2, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -839,21 +839,21 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>rife
-1. 화나게 하다
-2. 널리 퍼진, 만연한
-3. 비참한</t>
+1. 널리 퍼진, 만연한
+2. 비참한
+3. ~대신에</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2, 널리 퍼진, 만연한</t>
+          <t>1, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>deceptive
+          <t>deceptive*
 1. ~대신에
 2. 화나게 하다
 3. 남을 속이는, 기만적인</t>
@@ -869,74 +869,74 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>deceitful
+1. 화나게 하다
+2. 널리 퍼진, 만연한
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>delusive
 1. 남을 속이는, 기만적인
 2. 무정한, 냉담한
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>1, 남을 속이는, 기만적인</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>delusive
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>devious
+1. ~와 비교하여
+2. 널리 퍼진, 만연한
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>fraudulent
+1. 화나게 하다
+2. 남을 속이는, 기만적인
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>persuasive*
 1. 설득력 있는
 2. 남을 속이는, 기만적인
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>devious
-1. 남을 속이는, 기만적인
-2. 무정한, 냉담한
 3. 비참한</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>fraudulent
-1. 남을 속이는, 기만적인
-2. ~의 경우에
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>persuasive
-1. 비참한
-2. 설득력 있는
-3. ~대신에</t>
-        </is>
-      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2, 설득력 있는</t>
+          <t>1, 설득력 있는</t>
         </is>
       </c>
     </row>
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>convincing
-1. 무정한, 냉담한
-2. 설득력 있는
-3. ~와 비교하여</t>
+1. 화나게 하다
+2. 남을 속이는, 기만적인
+3. 설득력 있는</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2, 설득력 있는</t>
+          <t>3, 설득력 있는</t>
         </is>
       </c>
     </row>
@@ -959,203 +959,203 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>compelling
-1. 널리 퍼진, 만연한
+1. 설득력 있는
+2. ~와 비교하여
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>cogent
+1. 화나게 하다
 2. 남을 속이는, 기만적인
 3. 설득력 있는</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>3, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>cogent
-1. 비참한
-2. 설득력 있는
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2, 설득력 있는</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>disastrous
-1. ~와 비교하여
+          <t>disastrous*
+1. 비참한
+2. 무정한, 냉담한
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>tragic
+1. ~대신에
+2. 널리 퍼진, 만연한
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>miserable
+1. 널리 퍼진, 만연한
+2. 비참한
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>deplorable
+1. 비참한
+2. 무정한, 냉담한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>calamitous
+1. ~와 함께
+2. 비참한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>catastrophic
+1. ~의 경우에
+2. 비참한
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vex*
+1. 무정한, 냉담한
 2. 화나게 하다
 3. 비참한</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>tragic
-1. ~의 경우에
-2. 무정한, 냉담한
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>miserable
-1. 남을 속이는, 기만적인
-2. 비참한
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>deplorable
-1. 비참한
-2. ~의 경우에
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>calamitous
-1. 비참한
-2. 남을 속이는, 기만적인
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>catastrophic
-1. ~의 경우에
-2. 무정한, 냉담한
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>vex
-1. ~대신에
-2. 설득력 있는
-3. 화나게 하다</t>
-        </is>
-      </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3, 화나게 하다</t>
+          <t>2, 화나게 하다</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>annoy
-1. ~의 경우에
-2. 화나게 하다
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>infuriate
-1. ~와 함께
-2. 비참한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>3, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>displease
-1. ~의 경우에
-2. 널리 퍼진, 만연한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>3, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>exasperate
+          <t>annoy*
 1. 널리 퍼진, 만연한
 2. ~와 함께
 3. 화나게 하다</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>infuriate
+1. 무정한, 냉담한
+2. 화나게 하다
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>displease
+1. 화나게 하다
+2. 설득력 있는
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exasperate
+1. 널리 퍼진, 만연한
+2. 화나게 하다
+3. 비참한</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3, 화나게 하다</t>
+          <t>2, 화나게 하다</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>callous
-1. ~와 함께
-2. 설득력 있는
+          <t>callous*
+1. ~대신에
+2. ~와 함께
 3. 무정한, 냉담한</t>
         </is>
       </c>
@@ -1169,44 +1169,44 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>cruel
+1. 설득력 있는
+2. 무정한, 냉담한
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>pitiless
+1. 비참한
+2. ~와 비교하여
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ruthless
 1. 비참한
 2. 무정한, 냉담한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>2, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>pitiless
-1. 무정한, 냉담한
-2. ~대신에
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>ruthless
-1. 무정한, 냉담한
-2. 비참한
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1214,9 +1214,9 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>uncharitable
-1. 비참한
+1. ~와 비교하여
 2. 무정한, 냉담한
-3. 남을 속이는, 기만적인</t>
+3. ~대신에</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1229,9 +1229,9 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>inexorable
-1. ~와 함께
+1. 설득력 있는
 2. 무정한, 냉담한
-3. ~의 경우에</t>
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1260,7 +1260,7 @@
         <is>
           <t>merciless
 1. 널리 퍼진, 만연한
-2. ~와 함께
+2. 남을 속이는, 기만적인
 3. 무정한, 냉담한</t>
         </is>
       </c>

--- a/학습자료/단답형/객관식_영어_유의어_Day01.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day01.xlsx
@@ -448,9 +448,9 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>in conjunction with*
-1. ~대신에
-2. 무정한, 냉담한
+          <t>in conjunction with
+1. 널리 퍼진, 만연한
+2. ~대신에
 3. ~와 함께</t>
         </is>
       </c>
@@ -463,9 +463,9 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>in combination with*
-1. 무정한, 냉담한
-2. 설득력 있는
+          <t>in combination with
+1. ~의 경우에
+2. ~와 비교하여
 3. ~와 함께</t>
         </is>
       </c>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>in company with
-1. 설득력 있는
-2. 비참한
-3. ~와 함께</t>
+1. ~와 비교하여
+2. ~와 함께
+3. ~대신에</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3, ~와 함께</t>
+          <t>2, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>together with
-1. ~와 함께
-2. 무정한, 냉담한
-3. 설득력 있는</t>
+1. 화나게 하다
+2. 남을 속이는, 기만적인
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1, ~와 함께</t>
+          <t>3, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>alongside
-1. ~와 함께
-2. ~의 경우에
-3. 비참한</t>
+1. 설득력 있는
+2. ~와 비교하여
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, ~와 함께</t>
+          <t>3, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -524,24 +524,24 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>along with
-1. ~와 함께
-2. 무정한, 냉담한
-3. ~와 비교하여</t>
+1. 널리 퍼진, 만연한
+2. 설득력 있는
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, ~와 함께</t>
+          <t>3, ~와 함께</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>in comparison with*
-1. 화나게 하다
+          <t>in comparison with
+1. 남을 속이는, 기만적인
 2. ~와 비교하여
-3. 비참한</t>
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -555,8 +555,8 @@
         <is>
           <t>(as) compared with[to]
 1. ~와 비교하여
-2. ~의 경우에
-3. 남을 속이는, 기만적인</t>
+2. 화나게 하다
+3. 무정한, 냉담한</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>as against
-1. 설득력 있는
-2. ~와 비교하여
-3. 널리 퍼진, 만연한</t>
+1. ~의 경우에
+2. 널리 퍼진, 만연한
+3. ~와 비교하여</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, ~와 비교하여</t>
+          <t>3, ~와 비교하여</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>by[in] contrast
-1. ~의 경우에
+1. ~대신에
 2. ~와 함께
 3. ~와 비교하여</t>
         </is>
@@ -598,90 +598,90 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>in place of*
+          <t>in place of
+1. ~대신에
+2. 널리 퍼진, 만연한
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>instead (of)
+1. ~대신에
+2. 비참한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>on behalf of
+1. ~대신에
+2. 화나게 하다
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>in substitute for
+1. 무정한, 냉담한
+2. ~대신에
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>in lieu of
+1. ~대신에
+2. 널리 퍼진, 만연한
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>in case of
 1. 비참한
 2. ~대신에
 3. ~의 경우에</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>instead (of)
-1. ~대신에
-2. ~와 비교하여
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>on behalf of
-1. 비참한
-2. 설득력 있는
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>in substitute for
-1. ~대신에
-2. ~와 함께
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>in lieu of
-1. ~대신에
-2. ~의 경우에
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>in case of*
-1. ~와 비교하여
-2. ~의 경우에
-3. 설득력 있는</t>
-        </is>
-      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2, ~의 경우에</t>
+          <t>3, ~의 경우에</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>in the event of
-1. ~의 경우에
-2. ~와 함께
-3. ~와 비교하여</t>
+1. 무정한, 냉담한
+2. 남을 속이는, 기만적인
+3. ~의 경우에</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1, ~의 경우에</t>
+          <t>3, ~의 경우에</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>on the occasion (of)
-1. 설득력 있는
-2. ~와 비교하여
-3. ~의 경우에</t>
+1. 널리 퍼진, 만연한
+2. ~의 경우에
+3. ~대신에</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3, ~의 경우에</t>
+          <t>2, ~의 경우에</t>
         </is>
       </c>
     </row>
@@ -719,9 +719,9 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>in time (of)
-1. ~대신에
+1. 설득력 있는
 2. ~의 경우에
-3. 널리 퍼진, 만연한</t>
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -733,7 +733,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pervasive*
+          <t>pervasive
 1. ~와 함께
 2. 무정한, 냉담한
 3. 널리 퍼진, 만연한</t>
@@ -748,30 +748,30 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ubiquitous*
-1. 널리 퍼진, 만연한
-2. ~와 비교하여
-3. 남을 속이는, 기만적인</t>
+          <t>ubiquitous
+1. ~와 비교하여
+2. 널리 퍼진, 만연한
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 널리 퍼진, 만연한</t>
+          <t>2, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>prevalent*
-1. ~와 함께
-2. 화나게 하다
-3. 널리 퍼진, 만연한</t>
+          <t>prevalent
+1. 무정한, 냉담한
+2. 널리 퍼진, 만연한
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3, 널리 퍼진, 만연한</t>
+          <t>2, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -780,88 +780,88 @@
         <is>
           <t>omnipresent
 1. 무정한, 냉담한
+2. 널리 퍼진, 만연한
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>immanent
+1. 널리 퍼진, 만연한
+2. ~대신에
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>current
+1. 널리 퍼진, 만연한
+2. 무정한, 냉담한
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>prevailing
+1. 남을 속이는, 기만적인
+2. 널리 퍼진, 만연한
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>rife
+1. ~의 경우에
+2. 비참한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>deceptive
+1. ~의 경우에
 2. 남을 속이는, 기만적인
 3. 널리 퍼진, 만연한</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>immanent
-1. 널리 퍼진, 만연한
-2. 설득력 있는
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>current
-1. ~의 경우에
-2. 널리 퍼진, 만연한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>prevailing
-1. 무정한, 냉담한
-2. 널리 퍼진, 만연한
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>rife
-1. 널리 퍼진, 만연한
-2. 비참한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>deceptive*
-1. ~대신에
-2. 화나게 하다
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3, 남을 속이는, 기만적인</t>
+          <t>2, 남을 속이는, 기만적인</t>
         </is>
       </c>
     </row>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>deceitful
-1. 화나게 하다
-2. 널리 퍼진, 만연한
-3. 남을 속이는, 기만적인</t>
+1. 남을 속이는, 기만적인
+2. 비참한
+3. 설득력 있는</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3, 남을 속이는, 기만적인</t>
+          <t>1, 남을 속이는, 기만적인</t>
         </is>
       </c>
     </row>
@@ -884,29 +884,29 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>delusive
-1. 남을 속이는, 기만적인
-2. 무정한, 냉담한
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>devious
 1. ~와 비교하여
 2. 널리 퍼진, 만연한
 3. 남을 속이는, 기만적인</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>devious
+1. 남을 속이는, 기만적인
+2. ~대신에
+3. 설득력 있는</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3, 남을 속이는, 기만적인</t>
+          <t>1, 남을 속이는, 기만적인</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
           <t>fraudulent
 1. 화나게 하다
 2. 남을 속이는, 기만적인
-3. 무정한, 냉담한</t>
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -928,10 +928,10 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>persuasive*
+          <t>persuasive
 1. 설득력 있는
-2. 남을 속이는, 기만적인
-3. 비참한</t>
+2. ~와 함께
+3. ~대신에</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -944,14 +944,14 @@
       <c r="A35" t="inlineStr">
         <is>
           <t>convincing
-1. 화나게 하다
-2. 남을 속이는, 기만적인
-3. 설득력 있는</t>
+1. 설득력 있는
+2. ~의 경우에
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3, 설득력 있는</t>
+          <t>1, 설득력 있는</t>
         </is>
       </c>
     </row>
@@ -959,296 +959,296 @@
       <c r="A36" t="inlineStr">
         <is>
           <t>compelling
+1. ~의 경우에
+2. 비참한
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>cogent
+1. 설득력 있는
+2. 널리 퍼진, 만연한
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>disastrous
+1. 남을 속이는, 기만적인
+2. ~와 함께
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>tragic
+1. 무정한, 냉담한
+2. 비참한
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>miserable
+1. 무정한, 냉담한
+2. 설득력 있는
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>deplorable
+1. 비참한
+2. 남을 속이는, 기만적인
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>calamitous
+1. 무정한, 냉담한
+2. 비참한
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>catastrophic
+1. ~와 비교하여
+2. 비참한
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vex
+1. 남을 속이는, 기만적인
+2. 무정한, 냉담한
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>annoy
 1. 설득력 있는
 2. ~와 비교하여
 3. 화나게 하다</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>cogent
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>infuriate
+1. 남을 속이는, 기만적인
+2. 화나게 하다
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>displease
 1. 화나게 하다
-2. 남을 속이는, 기만적인
+2. 비참한
 3. 설득력 있는</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>disastrous*
-1. 비참한
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exasperate
+1. 설득력 있는
+2. 화나게 하다
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>callous
+1. 무정한, 냉담한
+2. ~대신에
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>cruel
+1. ~의 경우에
 2. 무정한, 냉담한
-3. ~의 경우에</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>tragic
-1. ~대신에
-2. 널리 퍼진, 만연한
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>miserable
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>pitiless
+1. 남을 속이는, 기만적인
+2. 설득력 있는
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ruthless
+1. 남을 속이는, 기만적인
+2. 설득력 있는
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>3, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>uncharitable
 1. 널리 퍼진, 만연한
-2. 비참한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>deplorable
-1. 비참한
+2. ~의 경우에
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>inexorable
+1. 화나게 하다
 2. 무정한, 냉담한
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>calamitous
-1. ~와 함께
-2. 비참한
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>catastrophic
-1. ~의 경우에
-2. 비참한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>vex*
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>relentless
 1. 무정한, 냉담한
 2. 화나게 하다
 3. 비참한</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>annoy*
-1. 널리 퍼진, 만연한
-2. ~와 함께
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>infuriate
-1. 무정한, 냉담한
-2. 화나게 하다
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>displease
-1. 화나게 하다
-2. 설득력 있는
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>exasperate
-1. 널리 퍼진, 만연한
-2. 화나게 하다
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>callous*
-1. ~대신에
-2. ~와 함께
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>3, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>cruel
-1. 설득력 있는
-2. 무정한, 냉담한
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>pitiless
-1. 비참한
-2. ~와 비교하여
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>3, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>ruthless
-1. 비참한
-2. 무정한, 냉담한
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>uncharitable
-1. ~와 비교하여
-2. 무정한, 냉담한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>inexorable
-1. 설득력 있는
-2. 무정한, 냉담한
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>relentless
-1. 무정한, 냉담한
-2. ~의 경우에
-3. 설득력 있는</t>
-        </is>
-      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>1, 무정한, 냉담한</t>
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>merciless
-1. 널리 퍼진, 만연한
+1. 무정한, 냉담한
 2. 남을 속이는, 기만적인
-3. 무정한, 냉담한</t>
+3. 설득력 있는</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3, 무정한, 냉담한</t>
+          <t>1, 무정한, 냉담한</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_영어_유의어_Day01.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day01.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>in conjunction with
-1. 널리 퍼진, 만연한
-2. ~대신에
-3. ~와 함께</t>
+1. 화나게 하다
+2. ~와 함께
+3. 설득력 있는</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, ~와 함께</t>
+          <t>2, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>in combination with
-1. ~의 경우에
-2. ~와 비교하여
-3. ~와 함께</t>
+1. 비참한
+2. ~와 함께
+3. ~와 비교하여</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, ~와 함께</t>
+          <t>2, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>in company with
-1. ~와 비교하여
-2. ~와 함께
-3. ~대신에</t>
+1. ~대신에
+2. ~의 경우에
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, ~와 함께</t>
+          <t>3, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -494,8 +494,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>together with
-1. 화나게 하다
-2. 남을 속이는, 기만적인
+1. ~의 경우에
+2. 비참한
 3. ~와 함께</t>
         </is>
       </c>
@@ -509,8 +509,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>alongside
-1. 설득력 있는
-2. ~와 비교하여
+1. ~의 경우에
+2. 비참한
 3. ~와 함께</t>
         </is>
       </c>
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>along with
-1. 널리 퍼진, 만연한
-2. 설득력 있는
-3. ~와 함께</t>
+1. ~와 함께
+2. ~와 비교하여
+3. 남을 속이는, 기만적인</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3, ~와 함께</t>
+          <t>1, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>in comparison with
-1. 남을 속이는, 기만적인
-2. ~와 비교하여
+1. ~와 비교하여
+2. 비참한
 3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2, ~와 비교하여</t>
+          <t>1, ~와 비교하여</t>
         </is>
       </c>
     </row>
@@ -554,29 +554,29 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>(as) compared with[to]
+1. 무정한, 냉담한
+2. 남을 속이는, 기만적인
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3, ~와 비교하여</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>as against
 1. ~와 비교하여
 2. 화나게 하다
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>1, ~와 비교하여</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>as against
-1. ~의 경우에
-2. 널리 퍼진, 만연한
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3, ~와 비교하여</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>by[in] contrast
-1. ~대신에
-2. ~와 함께
-3. ~와 비교하여</t>
+1. 무정한, 냉담한
+2. ~와 비교하여
+3. ~대신에</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3, ~와 비교하여</t>
+          <t>2, ~와 비교하여</t>
         </is>
       </c>
     </row>
@@ -599,14 +599,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>in place of
-1. ~대신에
-2. 널리 퍼진, 만연한
-3. ~와 비교하여</t>
+1. 남을 속이는, 기만적인
+2. ~대신에
+3. ~의 경우에</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1, ~대신에</t>
+          <t>2, ~대신에</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
           <t>instead (of)
 1. ~대신에
 2. 비참한
-3. 널리 퍼진, 만연한</t>
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>on behalf of
-1. ~대신에
-2. 화나게 하다
-3. 남을 속이는, 기만적인</t>
+1. 남을 속이는, 기만적인
+2. ~의 경우에
+3. ~대신에</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1, ~대신에</t>
+          <t>3, ~대신에</t>
         </is>
       </c>
     </row>
@@ -644,9 +644,9 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>in substitute for
-1. 무정한, 냉담한
+1. 화나게 하다
 2. ~대신에
-3. ~와 비교하여</t>
+3. 설득력 있는</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>in lieu of
-1. ~대신에
-2. 널리 퍼진, 만연한
-3. 무정한, 냉담한</t>
+1. 설득력 있는
+2. ~대신에
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1, ~대신에</t>
+          <t>2, ~대신에</t>
         </is>
       </c>
     </row>
@@ -674,26 +674,26 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>in case of
+1. ~의 경우에
+2. 화나게 하다
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1, ~의 경우에</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>in the event of
 1. 비참한
 2. ~대신에
 3. ~의 경우에</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3, ~의 경우에</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>in the event of
-1. 무정한, 냉담한
-2. 남을 속이는, 기만적인
-3. ~의 경우에</t>
-        </is>
-      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>3, ~의 경우에</t>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>on the occasion (of)
-1. 널리 퍼진, 만연한
-2. ~의 경우에
-3. ~대신에</t>
+1. ~의 경우에
+2. ~대신에
+3. ~와 비교하여</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2, ~의 경우에</t>
+          <t>1, ~의 경우에</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>in time (of)
-1. 설득력 있는
-2. ~의 경우에
-3. ~와 함께</t>
+1. ~의 경우에
+2. 설득력 있는
+3. 남을 속이는, 기만적인</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2, ~의 경우에</t>
+          <t>1, ~의 경우에</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>pervasive
-1. ~와 함께
-2. 무정한, 냉담한
-3. 널리 퍼진, 만연한</t>
+1. 널리 퍼진, 만연한
+2. 비참한
+3. ~대신에</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 널리 퍼진, 만연한</t>
+          <t>1, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -749,41 +749,41 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>ubiquitous
-1. ~와 비교하여
+1. ~와 함께
+2. 널리 퍼진, 만연한
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>prevalent
+1. ~의 경우에
+2. ~대신에
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>omnipresent
+1. ~대신에
 2. 널리 퍼진, 만연한
 3. 화나게 하다</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>prevalent
-1. 무정한, 냉담한
-2. 널리 퍼진, 만연한
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>omnipresent
-1. 무정한, 냉담한
-2. 널리 퍼진, 만연한
-3. 비참한</t>
-        </is>
-      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>2, 널리 퍼진, 만연한</t>
@@ -794,14 +794,14 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>immanent
-1. 널리 퍼진, 만연한
-2. ~대신에
+1. 남을 속이는, 기만적인
+2. 널리 퍼진, 만연한
 3. ~와 비교하여</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1, 널리 퍼진, 만연한</t>
+          <t>2, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>current
-1. 널리 퍼진, 만연한
-2. 무정한, 냉담한
-3. ~와 함께</t>
+1. 남을 속이는, 기만적인
+2. 널리 퍼진, 만연한
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1, 널리 퍼진, 만연한</t>
+          <t>2, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>prevailing
-1. 남을 속이는, 기만적인
-2. 널리 퍼진, 만연한
+1. 널리 퍼진, 만연한
+2. ~와 함께
 3. 비참한</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2, 널리 퍼진, 만연한</t>
+          <t>1, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>rife
-1. ~의 경우에
-2. 비참한
-3. 널리 퍼진, 만연한</t>
+1. ~와 함께
+2. 널리 퍼진, 만연한
+3. 무정한, 냉담한</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3, 널리 퍼진, 만연한</t>
+          <t>2, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>deceptive
-1. ~의 경우에
-2. 남을 속이는, 기만적인
-3. 널리 퍼진, 만연한</t>
+1. 남을 속이는, 기만적인
+2. ~와 비교하여
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2, 남을 속이는, 기만적인</t>
+          <t>1, 남을 속이는, 기만적인</t>
         </is>
       </c>
     </row>
@@ -869,59 +869,59 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>deceitful
-1. 남을 속이는, 기만적인
-2. 비참한
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>delusive
-1. ~와 비교하여
-2. 널리 퍼진, 만연한
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>devious
-1. 남을 속이는, 기만적인
-2. ~대신에
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>fraudulent
 1. 화나게 하다
 2. 남을 속이는, 기만적인
 3. 널리 퍼진, 만연한</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>delusive
+1. 널리 퍼진, 만연한
+2. 무정한, 냉담한
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>devious
+1. 설득력 있는
+2. ~의 경우에
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>fraudulent
+1. 남을 속이는, 기만적인
+2. ~의 경우에
+3. ~대신에</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2, 남을 속이는, 기만적인</t>
+          <t>1, 남을 속이는, 기만적인</t>
         </is>
       </c>
     </row>
@@ -929,284 +929,284 @@
       <c r="A34" t="inlineStr">
         <is>
           <t>persuasive
+1. ~와 함께
+2. 설득력 있는
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>convincing
+1. 널리 퍼진, 만연한
+2. ~와 비교하여
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>compelling
+1. 설득력 있는
+2. 비참한
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>cogent
 1. 설득력 있는
 2. ~와 함께
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>disastrous
+1. 비참한
+2. 화나게 하다
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>tragic
+1. 비참한
+2. 설득력 있는
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>miserable
+1. 비참한
+2. 무정한, 냉담한
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>deplorable
+1. 무정한, 냉담한
+2. 남을 속이는, 기만적인
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>calamitous
+1. 비참한
+2. ~와 비교하여
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>catastrophic
+1. 비참한
+2. 남을 속이는, 기만적인
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vex
+1. ~대신에
+2. 화나게 하다
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>annoy
+1. 무정한, 냉담한
+2. 남을 속이는, 기만적인
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>infuriate
+1. 화나게 하다
+2. ~와 비교하여
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>displease
+1. ~와 함께
+2. 화나게 하다
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exasperate
+1. 화나게 하다
+2. ~와 비교하여
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>callous
+1. 화나게 하다
+2. 무정한, 냉담한
 3. ~대신에</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>convincing
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>cruel
+1. 널리 퍼진, 만연한
+2. 무정한, 냉담한
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>pitiless
 1. 설득력 있는
+2. 널리 퍼진, 만연한
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3, 무정한, 냉담한</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ruthless
+1. 무정한, 냉담한
 2. ~의 경우에
 3. ~와 함께</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>compelling
-1. ~의 경우에
-2. 비참한
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>3, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>cogent
-1. 설득력 있는
-2. 널리 퍼진, 만연한
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>disastrous
-1. 남을 속이는, 기만적인
-2. ~와 함께
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>tragic
-1. 무정한, 냉담한
-2. 비참한
-3. ~의 경우에</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>miserable
-1. 무정한, 냉담한
-2. 설득력 있는
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>deplorable
-1. 비참한
-2. 남을 속이는, 기만적인
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>calamitous
-1. 무정한, 냉담한
-2. 비참한
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>catastrophic
-1. ~와 비교하여
-2. 비참한
-3. ~의 경우에</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>vex
-1. 남을 속이는, 기만적인
-2. 무정한, 냉담한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>3, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>annoy
-1. 설득력 있는
-2. ~와 비교하여
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>infuriate
-1. 남을 속이는, 기만적인
-2. 화나게 하다
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>displease
-1. 화나게 하다
-2. 비참한
-3. 설득력 있는</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>exasperate
-1. 설득력 있는
-2. 화나게 하다
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>callous
-1. 무정한, 냉담한
-2. ~대신에
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>1, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>cruel
-1. ~의 경우에
-2. 무정한, 냉담한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>pitiless
-1. 남을 속이는, 기만적인
-2. 설득력 있는
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>3, 무정한, 냉담한</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>ruthless
-1. 남을 속이는, 기만적인
-2. 설득력 있는
-3. 무정한, 냉담한</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>3, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>uncharitable
-1. 널리 퍼진, 만연한
-2. ~의 경우에
-3. 무정한, 냉담한</t>
+1. 무정한, 냉담한
+2. 널리 퍼진, 만연한
+3. 남을 속이는, 기만적인</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3, 무정한, 냉담한</t>
+          <t>1, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>inexorable
-1. 화나게 하다
+1. 비참한
 2. 무정한, 냉담한
 3. ~와 함께</t>
         </is>
@@ -1244,14 +1244,14 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>relentless
-1. 무정한, 냉담한
-2. 화나게 하다
-3. 비참한</t>
+1. ~의 경우에
+2. ~와 함께
+3. 무정한, 냉담한</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1, 무정한, 냉담한</t>
+          <t>3, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>merciless
-1. 무정한, 냉담한
-2. 남을 속이는, 기만적인
-3. 설득력 있는</t>
+1. ~대신에
+2. 무정한, 냉담한
+3. ~와 비교하여</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1, 무정한, 냉담한</t>
+          <t>2, 무정한, 냉담한</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_영어_유의어_Day01.xlsx
+++ b/학습자료/단답형/객관식_영어_유의어_Day01.xlsx
@@ -449,54 +449,54 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>in conjunction with
+1. 화나게 하다
+2. ~와 함께
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>in combination with
+1. 화나게 하다
+2. ~와 함께
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>in company with
+1. 설득력 있는
+2. ~와 함께
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2, ~와 함께</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>together with
 1. ~와 함께
 2. ~와 비교하여
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>in combination with
-1. ~의 경우에
-2. ~와 비교하여
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>3, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>in company with
-1. 비참한
-2. 남을 속이는, 기만적인
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3, ~와 함께</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>together with
-1. ~와 함께
-2. 비참한
-3. 남을 속이는, 기만적인</t>
+3. 비참한</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,9 +509,9 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>alongside
-1. 설득력 있는
+1. ~의 경우에
 2. ~와 함께
-3. 널리 퍼진, 만연한</t>
+3. 설득력 있는</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>along with
-1. 비참한
-2. ~와 함께
-3. 남을 속이는, 기만적인</t>
+1. ~와 함께
+2. 설득력 있는
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2, ~와 함께</t>
+          <t>1, ~와 함께</t>
         </is>
       </c>
     </row>
@@ -539,14 +539,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>in comparison with
-1. 남을 속이는, 기만적인
-2. 화나게 하다
-3. ~와 비교하여</t>
+1. ~와 비교하여
+2. ~대신에
+3. 화나게 하다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3, ~와 비교하여</t>
+          <t>1, ~와 비교하여</t>
         </is>
       </c>
     </row>
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>(as) compared with[to]
-1. 무정한, 냉담한
-2. ~의 경우에
-3. ~와 비교하여</t>
+1. 비참한
+2. ~와 비교하여
+3. ~의 경우에</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3, ~와 비교하여</t>
+          <t>2, ~와 비교하여</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
         <is>
           <t>as against
 1. 화나게 하다
-2. 널리 퍼진, 만연한
+2. 설득력 있는
 3. ~와 비교하여</t>
         </is>
       </c>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>by[in] contrast
-1. ~대신에
-2. 무정한, 냉담한
-3. ~와 비교하여</t>
+1. ~와 비교하여
+2. ~대신에
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3, ~와 비교하여</t>
+          <t>1, ~와 비교하여</t>
         </is>
       </c>
     </row>
@@ -599,26 +599,26 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>in place of
-1. 널리 퍼진, 만연한
+1. ~와 함께
+2. 화나게 하다
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3, ~대신에</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>instead (of)
+1. 설득력 있는
 2. 비참한
 3. ~대신에</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3, ~대신에</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>instead (of)
-1. 설득력 있는
-2. 무정한, 냉담한
-3. ~대신에</t>
-        </is>
-      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>3, ~대신에</t>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>on behalf of
-1. 비참한
-2. ~와 함께
-3. ~대신에</t>
+1. ~와 비교하여
+2. ~대신에
+3. 비참한</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3, ~대신에</t>
+          <t>2, ~대신에</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>in substitute for
-1. ~대신에
-2. 널리 퍼진, 만연한
-3. 설득력 있는</t>
+1. 남을 속이는, 기만적인
+2. ~대신에
+3. 비참한</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1, ~대신에</t>
+          <t>2, ~대신에</t>
         </is>
       </c>
     </row>
@@ -659,14 +659,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>in lieu of
-1. ~의 경우에
-2. ~대신에
-3. ~와 비교하여</t>
+1. ~대신에
+2. 남을 속이는, 기만적인
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2, ~대신에</t>
+          <t>1, ~대신에</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>in case of
-1. 무정한, 냉담한
+1. 널리 퍼진, 만연한
 2. ~와 함께
 3. ~의 경우에</t>
         </is>
@@ -689,9 +689,9 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>in the event of
-1. 설득력 있는
+1. 화나게 하다
 2. ~의 경우에
-3. 비참한</t>
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -719,29 +719,29 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>in time (of)
-1. 비참한
+1. 설득력 있는
+2. 비참한
+3. ~의 경우에</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3, ~의 경우에</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pervasive
+1. 널리 퍼진, 만연한
 2. ~의 경우에
 3. ~대신에</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2, ~의 경우에</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>pervasive
-1. 무정한, 냉담한
-2. 널리 퍼진, 만연한
-3. 화나게 하다</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2, 널리 퍼진, 만연한</t>
+          <t>1, 널리 퍼진, 만연한</t>
         </is>
       </c>
     </row>
@@ -749,404 +749,404 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>ubiquitous
-1. 무정한, 냉담한
+1. ~와 비교하여
+2. 비참한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>prevalent
+1. 널리 퍼진, 만연한
+2. 무정한, 냉담한
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>omnipresent
+1. ~대신에
+2. 널리 퍼진, 만연한
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>immanent
+1. 널리 퍼진, 만연한
+2. ~의 경우에
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>current
+1. 널리 퍼진, 만연한
+2. 설득력 있는
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>prevailing
+1. ~대신에
+2. 널리 퍼진, 만연한
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>rife
+1. 널리 퍼진, 만연한
+2. ~와 비교하여
+3. ~와 함께</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1, 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>deceptive
+1. ~대신에
+2. 널리 퍼진, 만연한
+3. 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>deceitful
+1. 남을 속이는, 기만적인
+2. 비참한
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>delusive
+1. ~의 경우에
+2. 남을 속이는, 기만적인
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>devious
+1. 남을 속이는, 기만적인
+2. 설득력 있는
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>fraudulent
+1. 남을 속이는, 기만적인
+2. 화나게 하다
+3. 무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1, 남을 속이는, 기만적인</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>persuasive
+1. 널리 퍼진, 만연한
+2. ~와 함께
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>convincing
+1. 널리 퍼진, 만연한
+2. ~와 비교하여
+3. 설득력 있는</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>compelling
+1. 설득력 있는
+2. 비참한
+3. 널리 퍼진, 만연한</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>cogent
+1. 설득력 있는
 2. 널리 퍼진, 만연한
 3. ~의 경우에</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>prevalent
-1. ~대신에
-2. 화나게 하다
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>omnipresent
-1. ~의 경우에
-2. ~와 함께
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>immanent
-1. ~의 경우에
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1, 설득력 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>disastrous
+1. ~와 함께
+2. ~와 비교하여
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>tragic
+1. 비참한
+2. 널리 퍼진, 만연한
+3. ~와 비교하여</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>miserable
+1. 널리 퍼진, 만연한
 2. 비참한
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>current
-1. 비참한
-2. ~와 함께
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>3, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>prevailing
-1. 널리 퍼진, 만연한
-2. 무정한, 냉담한
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>rife
-1. ~와 비교하여
-2. 널리 퍼진, 만연한
 3. ~와 함께</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2, 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>deceptive
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>deplorable
 1. ~와 함께
-2. 남을 속이는, 기만적인
-3. ~와 비교하여</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>deceitful
-1. 널리 퍼진, 만연한
-2. 남을 속이는, 기만적인
-3. ~대신에</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>delusive
-1. ~의 경우에
-2. 무정한, 냉담한
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>devious
-1. ~대신에
-2. ~와 비교하여
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>fraudulent
-1. ~와 비교하여
-2. ~와 함께
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3, 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>persuasive
-1. 설득력 있는
 2. ~의 경우에
 3. 비참한</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>convincing
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>calamitous
+1. 무정한, 냉담한
+2. 비참한
+3. ~대신에</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>catastrophic
+1. ~대신에
+2. 널리 퍼진, 만연한
+3. 비참한</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3, 비참한</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vex
+1. 설득력 있는
+2. 남을 속이는, 기만적인
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>annoy
+1. 설득력 있는
+2. ~대신에
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>infuriate
+1. ~의 경우에
+2. ~대신에
+3. 화나게 하다</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>displease
 1. 화나게 하다
 2. ~와 비교하여
 3. 설득력 있는</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>compelling
-1. 설득력 있는
-2. ~의 경우에
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>cogent
-1. ~와 함께
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1, 화나게 하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exasperate
+1. 화나게 하다
 2. 설득력 있는
 3. 무정한, 냉담한</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2, 설득력 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>disastrous
-1. ~와 비교하여
-2. 무정한, 냉담한
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>tragic
-1. 널리 퍼진, 만연한
-2. 비참한
-3. 남을 속이는, 기만적인</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>miserable
-1. ~의 경우에
-2. 무정한, 냉담한
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>deplorable
-1. 설득력 있는
-2. 남을 속이는, 기만적인
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>3, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>calamitous
-1. 비참한
-2. 화나게 하다
-3. 널리 퍼진, 만연한</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>catastrophic
-1. 남을 속이는, 기만적인
-2. 비참한
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2, 비참한</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>vex
-1. ~와 비교하여
-2. 화나게 하다
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>annoy
-1. 남을 속이는, 기만적인
-2. 널리 퍼진, 만연한
-3. 화나게 하다</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>infuriate
-1. 널리 퍼진, 만연한
-2. 화나게 하다
-3. ~와 함께</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>displease
-1. ~와 비교하여
-2. 화나게 하다
-3. 비참한</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2, 화나게 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>exasperate
-1. 널리 퍼진, 만연한
-2. ~의 경우에
-3. 화나게 하다</t>
-        </is>
-      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3, 화나게 하다</t>
+          <t>1, 화나게 하다</t>
         </is>
       </c>
     </row>
@@ -1154,14 +1154,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>callous
-1. 널리 퍼진, 만연한
-2. 비참한
-3. 무정한, 냉담한</t>
+1. 무정한, 냉담한
+2. ~와 비교하여
+3. ~의 경우에</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3, 무정한, 냉담한</t>
+          <t>1, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1169,8 +1169,8 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>cruel
-1. ~와 함께
-2. 널리 퍼진, 만연한
+1. 비참한
+2. 설득력 있는
 3. 무정한, 냉담한</t>
         </is>
       </c>
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>pitiless
-1. ~와 함께
-2. ~와 비교하여
-3. 무정한, 냉담한</t>
+1. 설득력 있는
+2. 무정한, 냉담한
+3. ~와 함께</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3, 무정한, 냉담한</t>
+          <t>2, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1199,14 +1199,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>ruthless
-1. 무정한, 냉담한
-2. 널리 퍼진, 만연한
-3. 화나게 하다</t>
+1. ~대신에
+2. 화나게 하다
+3. 무정한, 냉담한</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1, 무정한, 냉담한</t>
+          <t>3, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1214,8 +1214,8 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>uncharitable
-1. 널리 퍼진, 만연한
-2. ~와 함께
+1. ~와 함께
+2. ~대신에
 3. 무정한, 냉담한</t>
         </is>
       </c>
@@ -1229,9 +1229,9 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>inexorable
-1. 비참한
+1. 화나게 하다
 2. 무정한, 냉담한
-3. 남을 속이는, 기만적인</t>
+3. 널리 퍼진, 만연한</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1244,14 +1244,14 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>relentless
-1. 설득력 있는
-2. 무정한, 냉담한
-3. 비참한</t>
+1. 무정한, 냉담한
+2. ~와 함께
+3. ~와 비교하여</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2, 무정한, 냉담한</t>
+          <t>1, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
@@ -1259,14 +1259,14 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>merciless
-1. 화나게 하다
-2. 무정한, 냉담한
-3. ~와 함께</t>
+1. 설득력 있는
+2. ~대신에
+3. 무정한, 냉담한</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2, 무정한, 냉담한</t>
+          <t>3, 무정한, 냉담한</t>
         </is>
       </c>
     </row>
